--- a/data/pca/factorExposure/factorExposure_2012-11-21.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-11-21.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>0.00163880086358046</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>0.002086260584471123</v>
+      </c>
+      <c r="C2">
+        <v>-0.03061698130850718</v>
+      </c>
+      <c r="D2">
+        <v>0.004145146584158755</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>0.00144068181996245</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>-0.006832940057232397</v>
+      </c>
+      <c r="C4">
+        <v>-0.08335658299486945</v>
+      </c>
+      <c r="D4">
+        <v>0.07477745203878156</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>0.0004512842779849376</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>-0.01444769576495662</v>
+      </c>
+      <c r="C6">
+        <v>-0.1147377492831565</v>
+      </c>
+      <c r="D6">
+        <v>0.03319893707715749</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>0.00214025257542283</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>-0.004633709334654317</v>
+      </c>
+      <c r="C7">
+        <v>-0.05727701919171636</v>
+      </c>
+      <c r="D7">
+        <v>0.03191788413956974</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>-0.0003257106637947456</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>-0.005873228511238603</v>
+      </c>
+      <c r="C8">
+        <v>-0.03678272715322024</v>
+      </c>
+      <c r="D8">
+        <v>0.04028359157563949</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>0.004359210993707829</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>-0.004825802112329462</v>
+      </c>
+      <c r="C9">
+        <v>-0.07052607527195419</v>
+      </c>
+      <c r="D9">
+        <v>0.07265831567412749</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>-0.001448791938052753</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>-0.005514980086852775</v>
+      </c>
+      <c r="C10">
+        <v>-0.05784564705018098</v>
+      </c>
+      <c r="D10">
+        <v>-0.1964636143593841</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>0.004195406526000611</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>-0.005812192588163639</v>
+      </c>
+      <c r="C11">
+        <v>-0.07974862927841544</v>
+      </c>
+      <c r="D11">
+        <v>0.06053236524323675</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>0.001318265395950024</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>-0.004034570087279801</v>
+      </c>
+      <c r="C12">
+        <v>-0.06384987401547053</v>
+      </c>
+      <c r="D12">
+        <v>0.04759887566165057</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>-0.001765383493220688</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>-0.008872320607708484</v>
+      </c>
+      <c r="C13">
+        <v>-0.06961227563005291</v>
+      </c>
+      <c r="D13">
+        <v>0.05751318289979373</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>0.002519008554246729</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>-0.001042239406527852</v>
+      </c>
+      <c r="C14">
+        <v>-0.04390326135408282</v>
+      </c>
+      <c r="D14">
+        <v>0.006550252749614047</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>0.0009057369037603857</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>-0.005956556455057826</v>
+      </c>
+      <c r="C15">
+        <v>-0.04162012206384151</v>
+      </c>
+      <c r="D15">
+        <v>0.03109006177794187</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>0.00182717879101601</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>-0.005055278738494481</v>
+      </c>
+      <c r="C16">
+        <v>-0.06454978976706426</v>
+      </c>
+      <c r="D16">
+        <v>0.05320142241475473</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>0.001231147169715469</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>-0.008545605990134136</v>
+      </c>
+      <c r="C20">
+        <v>-0.06536466505615376</v>
+      </c>
+      <c r="D20">
+        <v>0.04256217530960984</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>-0.005786553915741713</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>-0.009772613600658692</v>
+      </c>
+      <c r="C21">
+        <v>-0.02160344781656552</v>
+      </c>
+      <c r="D21">
+        <v>0.03793335974836796</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>0.0173267907176817</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>0.006333235427370322</v>
+      </c>
+      <c r="C22">
+        <v>-0.09323312840759269</v>
+      </c>
+      <c r="D22">
+        <v>0.115043477466535</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>0.0176596647298284</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>0.006147866037585525</v>
+      </c>
+      <c r="C23">
+        <v>-0.09405289122191954</v>
+      </c>
+      <c r="D23">
+        <v>0.1149942014381789</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>0.003577804084581588</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>-0.005519358413510304</v>
+      </c>
+      <c r="C24">
+        <v>-0.07653071967263</v>
+      </c>
+      <c r="D24">
+        <v>0.06606490515156563</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>0.005710806429019735</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>-0.003152784055917171</v>
+      </c>
+      <c r="C25">
+        <v>-0.07762021547705937</v>
+      </c>
+      <c r="D25">
+        <v>0.0658527047120149</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>0.004276366463197998</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>-0.003585972802290326</v>
+      </c>
+      <c r="C26">
+        <v>-0.04021301608791318</v>
+      </c>
+      <c r="D26">
+        <v>0.0214366876763689</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>0.00765870699904561</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>0.001045432980803912</v>
+      </c>
+      <c r="C28">
+        <v>-0.1073128950703939</v>
+      </c>
+      <c r="D28">
+        <v>-0.3201341572024157</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>0.001392030277628828</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>-0.002925502543204715</v>
+      </c>
+      <c r="C29">
+        <v>-0.04969836641672257</v>
+      </c>
+      <c r="D29">
+        <v>0.009133126183815437</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>0.005013384135813837</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>-0.01002479933958867</v>
+      </c>
+      <c r="C30">
+        <v>-0.1417913846478732</v>
+      </c>
+      <c r="D30">
+        <v>0.1040304610934239</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>-0.0001683437700826966</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>-0.006313522533663104</v>
+      </c>
+      <c r="C31">
+        <v>-0.04446401121295319</v>
+      </c>
+      <c r="D31">
+        <v>0.02933766616898111</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>0.0002884924743742336</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>-0.00387015035067052</v>
+      </c>
+      <c r="C32">
+        <v>-0.03830177253804753</v>
+      </c>
+      <c r="D32">
+        <v>0.02422138648979424</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>0.003566573219040961</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>-0.008692002738539623</v>
+      </c>
+      <c r="C33">
+        <v>-0.08673125660415769</v>
+      </c>
+      <c r="D33">
+        <v>0.06529789061037904</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>0.00533431879037278</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>-0.004040775319154003</v>
+      </c>
+      <c r="C34">
+        <v>-0.05723226313451967</v>
+      </c>
+      <c r="D34">
+        <v>0.05396964797029639</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>0.0008850125354168272</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>-0.005052722614019923</v>
+      </c>
+      <c r="C35">
+        <v>-0.04010342810762927</v>
+      </c>
+      <c r="D35">
+        <v>0.01823391843603528</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>0.004424287959112906</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>0.001096521200557444</v>
+      </c>
+      <c r="C36">
+        <v>-0.02528882921979124</v>
+      </c>
+      <c r="D36">
+        <v>0.02140315950001775</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>-0.001329452740716959</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>-0.009251315729760132</v>
+      </c>
+      <c r="C38">
+        <v>-0.03467215517520741</v>
+      </c>
+      <c r="D38">
+        <v>0.01373131390245755</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>0.01421438524254777</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>0.0007928989933070502</v>
+      </c>
+      <c r="C39">
+        <v>-0.1152499353600403</v>
+      </c>
+      <c r="D39">
+        <v>0.0753774885552221</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>0.01000874798566806</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>-0.003073860673904401</v>
+      </c>
+      <c r="C40">
+        <v>-0.09063155311225163</v>
+      </c>
+      <c r="D40">
+        <v>0.01326974039488964</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>-0.001155369604829058</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>-0.007324283615045574</v>
+      </c>
+      <c r="C41">
+        <v>-0.03783819697849748</v>
+      </c>
+      <c r="D41">
+        <v>0.03787792870221146</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>0.003678737969698165</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>-0.004000892118953004</v>
+      </c>
+      <c r="C43">
+        <v>-0.05336170617119636</v>
+      </c>
+      <c r="D43">
+        <v>0.02418414239831294</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>0.0161102612687098</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>-0.003259478944095193</v>
+      </c>
+      <c r="C44">
+        <v>-0.1092292455821267</v>
+      </c>
+      <c r="D44">
+        <v>0.06763864721044797</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>0.0008888962063066427</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>-0.001821791781223592</v>
+      </c>
+      <c r="C46">
+        <v>-0.03282418302711398</v>
+      </c>
+      <c r="D46">
+        <v>0.0350185901493597</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>0.0008727146409571064</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>-0.002451009240722549</v>
+      </c>
+      <c r="C47">
+        <v>-0.03683337834771816</v>
+      </c>
+      <c r="D47">
+        <v>0.02303863229554324</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>-0.003960671474370737</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>-0.006757619493312227</v>
+      </c>
+      <c r="C48">
+        <v>-0.03126582311478911</v>
+      </c>
+      <c r="D48">
+        <v>0.03184036402231</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>0.01349029502978008</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>-0.01606956308778103</v>
+      </c>
+      <c r="C49">
+        <v>-0.183328254888986</v>
+      </c>
+      <c r="D49">
+        <v>0.01609154551040564</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>0.001939864090969269</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>-0.003706492756325462</v>
+      </c>
+      <c r="C50">
+        <v>-0.04337333027986447</v>
+      </c>
+      <c r="D50">
+        <v>0.03693398471392644</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>-0.000222193509285265</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>-0.004792552951574531</v>
+      </c>
+      <c r="C51">
+        <v>-0.02591570443283939</v>
+      </c>
+      <c r="D51">
+        <v>0.02111618272149791</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>0.0008079212795180337</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>-0.0211213354830386</v>
+      </c>
+      <c r="C53">
+        <v>-0.1699664931402136</v>
+      </c>
+      <c r="D53">
+        <v>0.02778172538561504</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>-0.001366223197430982</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>-0.008862252206643365</v>
+      </c>
+      <c r="C54">
+        <v>-0.05452742568576555</v>
+      </c>
+      <c r="D54">
+        <v>0.04445936154066194</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>0.005627946825093241</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>-0.009390082456292569</v>
+      </c>
+      <c r="C55">
+        <v>-0.1101262352213278</v>
+      </c>
+      <c r="D55">
+        <v>0.0391083823078494</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>0.0003035245280897996</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>-0.0202364264095438</v>
+      </c>
+      <c r="C56">
+        <v>-0.1739953788713852</v>
+      </c>
+      <c r="D56">
+        <v>0.01909160393784234</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>0.009554231615890175</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>-0.01933993202515211</v>
+      </c>
+      <c r="C58">
+        <v>-0.1093327913022454</v>
+      </c>
+      <c r="D58">
+        <v>0.06332602966567941</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>0.009164608679655028</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>-0.009988314649429756</v>
+      </c>
+      <c r="C59">
+        <v>-0.1653454782357951</v>
+      </c>
+      <c r="D59">
+        <v>-0.3311379222269258</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>0.005809240488162683</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>-0.0249661155225254</v>
+      </c>
+      <c r="C60">
+        <v>-0.2227395714032988</v>
+      </c>
+      <c r="D60">
+        <v>0.03033440310993293</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>0.01547387640620688</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>0.001703075499307356</v>
+      </c>
+      <c r="C61">
+        <v>-0.09447313918901942</v>
+      </c>
+      <c r="D61">
+        <v>0.05708311882095971</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>-0.1589648609712656</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>-0.14704481248632</v>
+      </c>
+      <c r="C62">
+        <v>-0.09365590342579581</v>
+      </c>
+      <c r="D62">
+        <v>0.03738655127959613</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>0.001111351369772374</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>-0.006523025699543872</v>
+      </c>
+      <c r="C63">
+        <v>-0.05474662091492616</v>
+      </c>
+      <c r="D63">
+        <v>0.02589645891389244</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>0.001424221152080969</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>-0.01502053086381102</v>
+      </c>
+      <c r="C64">
+        <v>-0.1057158139683389</v>
+      </c>
+      <c r="D64">
+        <v>0.06063220701710204</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>-0.002178954103731746</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>-0.01805044570507538</v>
+      </c>
+      <c r="C65">
+        <v>-0.1246852182886697</v>
+      </c>
+      <c r="D65">
+        <v>0.02320355305662607</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>0.008329497495602163</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>-0.01320403309722921</v>
+      </c>
+      <c r="C66">
+        <v>-0.158970601123345</v>
+      </c>
+      <c r="D66">
+        <v>0.1145270567269144</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>-0.002892015863758482</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>-0.01561032599788339</v>
+      </c>
+      <c r="C67">
+        <v>-0.06567002711640997</v>
+      </c>
+      <c r="D67">
+        <v>0.02555094157427978</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>0.007016698489862852</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>-0.0009852845111660057</v>
+      </c>
+      <c r="C68">
+        <v>-0.08694100701661898</v>
+      </c>
+      <c r="D68">
+        <v>-0.2615448674254235</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>0.002226229011497574</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>-0.006026846252455865</v>
+      </c>
+      <c r="C69">
+        <v>-0.05110325867030598</v>
+      </c>
+      <c r="D69">
+        <v>0.03736688360456084</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>-0.000373903716791311</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>-0.001793940318566822</v>
+      </c>
+      <c r="C70">
+        <v>-0.002782129281893293</v>
+      </c>
+      <c r="D70">
+        <v>0.0009132408370667674</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>0.001469936515958724</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>-0.006032854816695609</v>
+      </c>
+      <c r="C71">
+        <v>-0.09439591047770565</v>
+      </c>
+      <c r="D71">
+        <v>-0.3040805675050996</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>0.005975574867315678</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>-0.01613609141254102</v>
+      </c>
+      <c r="C72">
+        <v>-0.1532331348033055</v>
+      </c>
+      <c r="D72">
+        <v>0.01489476280610047</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>0.0151711868725851</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>-0.03159955056482875</v>
+      </c>
+      <c r="C73">
+        <v>-0.2809682367183934</v>
+      </c>
+      <c r="D73">
+        <v>0.06090102574903417</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>0.006960192473348943</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>-0.002187124254261426</v>
+      </c>
+      <c r="C74">
+        <v>-0.1042067418924628</v>
+      </c>
+      <c r="D74">
+        <v>0.03392879218254052</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>0.004246884674061399</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>-0.0113521947688414</v>
+      </c>
+      <c r="C75">
+        <v>-0.1244154202645534</v>
+      </c>
+      <c r="D75">
+        <v>0.02109166056444716</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>-0.005153456076256578</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>-0.02227799191293453</v>
+      </c>
+      <c r="C76">
+        <v>-0.1488115751824084</v>
+      </c>
+      <c r="D76">
+        <v>0.05662129937714864</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>-0.003390400923978327</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>-0.02216356273764986</v>
+      </c>
+      <c r="C77">
+        <v>-0.1163740919166652</v>
+      </c>
+      <c r="D77">
+        <v>0.0787827367132045</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>0.000143373665472198</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>-0.01505448479977075</v>
+      </c>
+      <c r="C78">
+        <v>-0.09678029291078896</v>
+      </c>
+      <c r="D78">
+        <v>0.0725263773085674</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>-0.02133118269068204</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>-0.03778274680909489</v>
+      </c>
+      <c r="C79">
+        <v>-0.156949715308267</v>
+      </c>
+      <c r="D79">
+        <v>0.03191903763074042</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>-0.005149728566484622</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>-0.01008478157424781</v>
+      </c>
+      <c r="C80">
+        <v>-0.03961182626522636</v>
+      </c>
+      <c r="D80">
+        <v>0.02954053695621665</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>-0.0003877335756373755</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>-0.01620683959000279</v>
+      </c>
+      <c r="C81">
+        <v>-0.1290877573486801</v>
+      </c>
+      <c r="D81">
+        <v>0.04078442337137502</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>-0.002133533121330049</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>-0.01995931695056375</v>
+      </c>
+      <c r="C82">
+        <v>-0.141024702654584</v>
+      </c>
+      <c r="D82">
+        <v>0.03731548372474056</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>0.006673051793038041</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>-0.01001404737260526</v>
+      </c>
+      <c r="C83">
+        <v>-0.05559948259633735</v>
+      </c>
+      <c r="D83">
+        <v>0.05530132160908954</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>-0.0120030443489634</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>-0.01130406081535228</v>
+      </c>
+      <c r="C84">
+        <v>-0.03743045705456781</v>
+      </c>
+      <c r="D84">
+        <v>-0.001268601426560955</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>-0.01198297015567702</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>-0.02895572246428752</v>
+      </c>
+      <c r="C85">
+        <v>-0.125136479960773</v>
+      </c>
+      <c r="D85">
+        <v>0.04380494637865291</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>0.00294054134886956</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>-0.004926465922901034</v>
+      </c>
+      <c r="C86">
+        <v>-0.04943425873473273</v>
+      </c>
+      <c r="D86">
+        <v>0.03071971163985298</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>0.004425809977700233</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>-0.01087517064300993</v>
+      </c>
+      <c r="C87">
+        <v>-0.1285362323472574</v>
+      </c>
+      <c r="D87">
+        <v>0.07271856548429527</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>0.01153448125122958</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>0.002779402979714823</v>
+      </c>
+      <c r="C88">
+        <v>-0.06503701077949732</v>
+      </c>
+      <c r="D88">
+        <v>0.01955409866908437</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>0.0155825153298862</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>0.001423467368830746</v>
+      </c>
+      <c r="C89">
+        <v>-0.1473324188143</v>
+      </c>
+      <c r="D89">
+        <v>-0.328986835007605</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>0.003151758852079241</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>-0.006734099151007525</v>
+      </c>
+      <c r="C90">
+        <v>-0.1209697800767682</v>
+      </c>
+      <c r="D90">
+        <v>-0.3165685812296705</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>0.001223009559112978</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>-0.01057705516926086</v>
+      </c>
+      <c r="C91">
+        <v>-0.1003293226389688</v>
+      </c>
+      <c r="D91">
+        <v>0.02316408290166874</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>0.01054641857133383</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>-0.0009776164448625736</v>
+      </c>
+      <c r="C92">
+        <v>-0.1367205021315036</v>
+      </c>
+      <c r="D92">
+        <v>-0.3230178382887213</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>0.002333749375979449</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>-0.005078649367898216</v>
+      </c>
+      <c r="C93">
+        <v>-0.1061493292668655</v>
+      </c>
+      <c r="D93">
+        <v>-0.3004568273081361</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>-0.0009020675706167442</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>-0.0225655230072527</v>
+      </c>
+      <c r="C94">
+        <v>-0.1456101448712184</v>
+      </c>
+      <c r="D94">
+        <v>0.05102703107665098</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>0.003424685802431496</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>-0.01742504246490597</v>
+      </c>
+      <c r="C95">
+        <v>-0.1246763830641759</v>
+      </c>
+      <c r="D95">
+        <v>0.0587985381096113</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>0.001147586837236093</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>-0.03681983600080671</v>
+      </c>
+      <c r="C97">
+        <v>-0.2170402801896138</v>
+      </c>
+      <c r="D97">
+        <v>-0.01425039221472237</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>0.00471424689090019</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>-0.03741855281483012</v>
+      </c>
+      <c r="C98">
+        <v>-0.2492055173535019</v>
+      </c>
+      <c r="D98">
+        <v>0.04838201321147218</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>-0.9852121613440484</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>-0.9816923113380188</v>
+      </c>
+      <c r="C99">
+        <v>0.1185953257829824</v>
+      </c>
+      <c r="D99">
+        <v>-0.02641901382153164</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>0.001314697400003387</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>-0.002966908650731498</v>
+      </c>
+      <c r="C101">
+        <v>-0.04983995298624885</v>
+      </c>
+      <c r="D101">
+        <v>0.009505104294531316</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
